--- a/downloaded_files/BDES481_Lecture-35385.xlsx
+++ b/downloaded_files/BDES481_Lecture-35385.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed ElKassem Ahmed Elgamil Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ايمن محمد ابراهيم الجعفراوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ayman Mohamed Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210396</x:t>
@@ -533,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1788,7 +1797,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.2668505787</x:v>
+        <x:v>45930.3470861111</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1820,7 +1829,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.2684734144</x:v>
+        <x:v>45912.2668505787</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1852,7 +1861,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4154149653</x:v>
+        <x:v>45912.2684734144</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1884,7 +1893,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4155145833</x:v>
+        <x:v>45906.4154149653</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1916,7 +1925,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45906.4155145833</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1948,7 +1957,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.2672721875</x:v>
+        <x:v>45906.4150845718</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1980,7 +1989,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45912.2672721875</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2012,7 +2021,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4145290509</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2044,7 +2053,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.2696006134</x:v>
+        <x:v>45906.4145290509</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2076,7 +2085,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45912.2696006134</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2108,7 +2117,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4382373032</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2140,7 +2149,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4148091782</x:v>
+        <x:v>45906.4382373032</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2172,7 +2181,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4153566782</x:v>
+        <x:v>45906.4148091782</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2204,7 +2213,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4156043171</x:v>
+        <x:v>45906.4153566782</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2236,7 +2245,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4152550116</x:v>
+        <x:v>45906.4156043171</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2268,7 +2277,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.2690188657</x:v>
+        <x:v>45906.4152550116</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2285,6 +2294,38 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45912.2690188657</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/BDES481_Lecture-35385.xlsx
+++ b/downloaded_files/BDES481_Lecture-35385.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -150,6 +150,15 @@
     <x:t>seif mohamed sayed hashem</x:t>
   </x:si>
   <x:si>
+    <x:t>1210244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف هشام عبد العزيز عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saif Hesham Abdelaziz Attia</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210366</x:t>
   </x:si>
   <x:si>
@@ -391,6 +400,15 @@
   </x:si>
   <x:si>
     <x:t>Hamsa Saber Abdulrazek Abokhatwa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنا احمد ابراهيم احمد غانم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hana Ahmed Ebrahim Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1200883</x:t>
@@ -542,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1349,7 +1367,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4146051273</x:v>
+        <x:v>45934.8886014236</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1381,7 +1399,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4150041667</x:v>
+        <x:v>45906.4146051273</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1413,7 +1431,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45906.4150041667</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1445,7 +1463,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6654144329</x:v>
+        <x:v>45906.415122419</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1477,7 +1495,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.2683014699</x:v>
+        <x:v>45906.6654144329</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1509,7 +1527,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45912.2683014699</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1541,7 +1559,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.26789375</x:v>
+        <x:v>45906.4147752315</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1573,7 +1591,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6650606481</x:v>
+        <x:v>45912.26789375</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1605,7 +1623,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.9869383912</x:v>
+        <x:v>45906.6650606481</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1637,7 +1655,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.5042261921</x:v>
+        <x:v>45915.9869383912</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1669,7 +1687,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4162680556</x:v>
+        <x:v>45906.5042261921</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1701,7 +1719,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45906.4162680556</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1733,7 +1751,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1765,7 +1783,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.2670631134</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1797,7 +1815,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45930.3470861111</x:v>
+        <x:v>45912.2670631134</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1829,7 +1847,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.2668505787</x:v>
+        <x:v>45930.3470861111</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1861,7 +1879,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.2684734144</x:v>
+        <x:v>45912.2668505787</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1893,7 +1911,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4154149653</x:v>
+        <x:v>45912.2684734144</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1925,7 +1943,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4155145833</x:v>
+        <x:v>45906.4154149653</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1957,7 +1975,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45906.4155145833</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1989,7 +2007,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.2672721875</x:v>
+        <x:v>45906.4150845718</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2021,7 +2039,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45912.2672721875</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2053,7 +2071,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4145290509</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2085,7 +2103,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.2696006134</x:v>
+        <x:v>45906.4145290509</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2117,7 +2135,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45912.2696006134</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2149,7 +2167,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4382373032</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2181,7 +2199,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4148091782</x:v>
+        <x:v>45906.4382373032</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2213,7 +2231,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4153566782</x:v>
+        <x:v>45906.4148091782</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2245,7 +2263,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4156043171</x:v>
+        <x:v>45934.8886014236</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2277,7 +2295,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.4152550116</x:v>
+        <x:v>45906.4153566782</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2309,7 +2327,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.2690188657</x:v>
+        <x:v>45906.4156043171</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2326,6 +2344,70 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45906.4152550116</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45912.2690188657</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
